--- a/Listado_INGRESOS.xlsx
+++ b/Listado_INGRESOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
   <si>
     <t>FECHA</t>
   </si>
@@ -22,6 +22,9 @@
     <t>OBRA</t>
   </si>
   <si>
+    <t>NRO OT</t>
+  </si>
+  <si>
     <t>FACTURA NRO</t>
   </si>
   <si>
@@ -43,7 +46,16 @@
     <t>TOTAL FACTURADO</t>
   </si>
   <si>
-    <t>01/11/2018</t>
+    <t>clientito 1</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>000123</t>
+  </si>
+  <si>
+    <t>CREDITO</t>
   </si>
   <si>
     <t>Luis Enrique</t>
@@ -62,9 +74,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt formatCode="#,##0.00; (#,##0.00); -" numFmtId="164"/>
     <numFmt formatCode="#,##0; (#,##0); -" numFmtId="165"/>
+    <numFmt formatCode="[$-409]m/d/yy" numFmtId="166"/>
   </numFmts>
   <fonts count="1">
     <font>
@@ -91,17 +104,18 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf applyFont="1" fontId="0"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="164"/>
     <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="165"/>
+    <xf applyFont="1" fontId="0" applyNumberFormat="1" numFmtId="166"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:K3"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -135,13 +149,16 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
       <c r="K1" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
-      <c r="A2" s="1" t="s">
-        <v>10</v>
+    <row r="2" spans="1:11">
+      <c r="A2" s="3">
+        <v>43502</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -149,25 +166,63 @@
       <c r="C2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="F2" s="1" t="n">
+      <c r="G2" s="1" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="H2" s="1" t="n">
+        <v>6818182</v>
+      </c>
+      <c r="I2" s="1" t="n">
+        <v>4772727</v>
+      </c>
+      <c r="J2" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="K2" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="1" t="n">
         <v>123124</v>
       </c>
-      <c r="G2" s="1" t="n">
+      <c r="H3" s="1" t="n">
         <v>123123</v>
       </c>
-      <c r="H2" s="1" t="n">
+      <c r="I3" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>34</v>
       </c>
-      <c r="J2" s="2" t="n">
+      <c r="K3" s="2" t="n">
         <v>143453</v>
       </c>
     </row>

--- a/Listado_INGRESOS.xlsx
+++ b/Listado_INGRESOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>FECHA</t>
   </si>
@@ -46,18 +46,33 @@
     <t>TOTAL FACTURADO</t>
   </si>
   <si>
+    <t>cliente mayor 230</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>54767</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
     <t>clientito 1</t>
   </si>
   <si>
-    <t>camineros</t>
-  </si>
-  <si>
     <t>000123</t>
   </si>
   <si>
     <t>CREDITO</t>
   </si>
   <si>
+    <t>4</t>
+  </si>
+  <si>
     <t>Luis Enrique</t>
   </si>
   <si>
@@ -68,6 +83,9 @@
   </si>
   <si>
     <t>ANULADA</t>
+  </si>
+  <si>
+    <t>34</t>
   </si>
 </sst>
 </file>
@@ -115,7 +133,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K3"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -158,7 +176,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3">
-        <v>43502</v>
+        <v>43530</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -167,7 +185,7 @@
         <v>12</v>
       </c>
       <c r="D2" s="1" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>13</v>
@@ -176,16 +194,16 @@
         <v>14</v>
       </c>
       <c r="G2" s="1" t="n">
-        <v>75000000</v>
+        <v>1500000</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>6818182</v>
+        <v>136364</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>4772727</v>
-      </c>
-      <c r="J2" s="1" t="n">
-        <v>4</v>
+        <v>95455</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>15</v>
       </c>
       <c r="K2" s="2" t="n">
         <v>1500000</v>
@@ -193,16 +211,16 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
-        <v>43405</v>
+        <v>43502</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
@@ -211,18 +229,53 @@
         <v>18</v>
       </c>
       <c r="G3" s="1" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>6818182</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>4772727</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="3">
+        <v>43405</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="n">
         <v>123124</v>
       </c>
-      <c r="H3" s="1" t="n">
+      <c r="H4" s="1" t="n">
         <v>123123</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="J3" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="K3" s="2" t="n">
+      <c r="J4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" s="2" t="n">
         <v>143453</v>
       </c>
     </row>

--- a/Listado_INGRESOS.xlsx
+++ b/Listado_INGRESOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>FECHA</t>
   </si>
@@ -46,16 +46,25 @@
     <t>TOTAL FACTURADO</t>
   </si>
   <si>
+    <t>Luis Oviedo Chaparro</t>
+  </si>
+  <si>
+    <t>camineros</t>
+  </si>
+  <si>
+    <t>123</t>
+  </si>
+  <si>
+    <t>CONTADO</t>
+  </si>
+  <si>
+    <t>RET_30</t>
+  </si>
+  <si>
     <t>cliente mayor 230</t>
   </si>
   <si>
-    <t>camineros</t>
-  </si>
-  <si>
     <t>54767</t>
-  </si>
-  <si>
-    <t>CONTADO</t>
   </si>
   <si>
     <t>70%</t>
@@ -133,7 +142,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
@@ -176,7 +185,7 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" s="3">
-        <v>43530</v>
+        <v>43578</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>11</v>
@@ -200,7 +209,7 @@
         <v>136364</v>
       </c>
       <c r="I2" s="1" t="n">
-        <v>95455</v>
+        <v>40909</v>
       </c>
       <c r="J2" s="1" t="s">
         <v>15</v>
@@ -211,7 +220,7 @@
     </row>
     <row r="3" spans="1:11">
       <c r="A3" s="3">
-        <v>43502</v>
+        <v>43530</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>16</v>
@@ -220,25 +229,25 @@
         <v>12</v>
       </c>
       <c r="D3" s="1" t="n">
-        <v>56</v>
+        <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="F3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="1" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="H3" s="1" t="n">
+        <v>136364</v>
+      </c>
+      <c r="I3" s="1" t="n">
+        <v>95455</v>
+      </c>
+      <c r="J3" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>75000000</v>
-      </c>
-      <c r="H3" s="1" t="n">
-        <v>6818182</v>
-      </c>
-      <c r="I3" s="1" t="n">
-        <v>4772727</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>19</v>
       </c>
       <c r="K3" s="2" t="n">
         <v>1500000</v>
@@ -246,36 +255,71 @@
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="3">
+        <v>43502</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>75000000</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>6818182</v>
+      </c>
+      <c r="I4" s="1" t="n">
+        <v>4772727</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="K4" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="3">
         <v>43405</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" s="1" t="n">
+      <c r="B5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="G4" s="1" t="n">
+      <c r="E5" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="1" t="n">
         <v>123124</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="H5" s="1" t="n">
         <v>123123</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" s="2" t="n">
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="2" t="n">
         <v>143453</v>
       </c>
     </row>

--- a/Listado_INGRESOS.xlsx
+++ b/Listado_INGRESOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>FECHA</t>
   </si>
@@ -25,6 +25,9 @@
     <t>NRO OT</t>
   </si>
   <si>
+    <t>PAGO</t>
+  </si>
+  <si>
     <t>FACTURA NRO</t>
   </si>
   <si>
@@ -52,6 +55,9 @@
     <t>camineros</t>
   </si>
   <si>
+    <t>1er pago</t>
+  </si>
+  <si>
     <t>123</t>
   </si>
   <si>
@@ -71,6 +77,9 @@
   </si>
   <si>
     <t>clientito 1</t>
+  </si>
+  <si>
+    <t>null</t>
   </si>
   <si>
     <t>000123</t>
@@ -142,13 +151,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K5"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -182,144 +191,159 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
       <c r="A2" s="3">
         <v>43578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="1" t="n">
-        <v>1500000</v>
+        <v>15</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H2" s="1" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I2" s="1" t="n">
         <v>136364</v>
       </c>
-      <c r="I2" s="1" t="n">
+      <c r="J2" s="1" t="n">
         <v>40909</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+      <c r="K2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L2" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
       <c r="A3" s="3">
         <v>43530</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="1" t="n">
-        <v>1500000</v>
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>16</v>
       </c>
       <c r="H3" s="1" t="n">
+        <v>1500000</v>
+      </c>
+      <c r="I3" s="1" t="n">
         <v>136364</v>
       </c>
-      <c r="I3" s="1" t="n">
+      <c r="J3" s="1" t="n">
         <v>95455</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="K3" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
+      <c r="K3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
       <c r="A4" s="3">
         <v>43502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" s="1" t="n">
         <v>75000000</v>
       </c>
-      <c r="H4" s="1" t="n">
+      <c r="I4" s="1" t="n">
         <v>6818182</v>
       </c>
-      <c r="I4" s="1" t="n">
+      <c r="J4" s="1" t="n">
         <v>4772727</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11">
+      <c r="K4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
       <c r="A5" s="3">
         <v>43405</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" s="1" t="n">
         <v>123124</v>
       </c>
-      <c r="H5" s="1" t="n">
+      <c r="I5" s="1" t="n">
         <v>123123</v>
       </c>
-      <c r="I5" s="1" t="n">
+      <c r="J5" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="J5" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="K5" s="2" t="n">
+      <c r="K5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="L5" s="2" t="n">
         <v>143453</v>
       </c>
     </row>

--- a/Listado_INGRESOS.xlsx
+++ b/Listado_INGRESOS.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>FECHA</t>
   </si>
@@ -35,6 +35,9 @@
   </si>
   <si>
     <t>MONTO</t>
+  </si>
+  <si>
+    <t>MONTO SIN IVA</t>
   </si>
   <si>
     <t>IVA</t>
@@ -151,13 +154,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:M5"/>
   <sheetViews>
     <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -194,156 +197,171 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="3">
         <v>43578</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H2" s="1" t="n">
         <v>1500000</v>
       </c>
       <c r="I2" s="1" t="n">
+        <v>1363636</v>
+      </c>
+      <c r="J2" s="1" t="n">
         <v>136364</v>
       </c>
-      <c r="J2" s="1" t="n">
+      <c r="K2" s="1" t="n">
         <v>40909</v>
       </c>
-      <c r="K2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="L2" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="L2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="M2" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="3">
         <v>43530</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>23</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="H3" s="1" t="n">
         <v>1500000</v>
       </c>
       <c r="I3" s="1" t="n">
+        <v>1363636</v>
+      </c>
+      <c r="J3" s="1" t="n">
         <v>136364</v>
       </c>
-      <c r="J3" s="1" t="n">
+      <c r="K3" s="1" t="n">
         <v>95455</v>
       </c>
-      <c r="K3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="L3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="M3" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="3">
         <v>43502</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D4" s="1" t="n">
         <v>56</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="H4" s="1" t="n">
         <v>75000000</v>
       </c>
       <c r="I4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" s="1" t="n">
         <v>6818182</v>
       </c>
-      <c r="J4" s="1" t="n">
+      <c r="K4" s="1" t="n">
         <v>4772727</v>
       </c>
-      <c r="K4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="L4" s="2" t="n">
-        <v>1500000</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="L4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M4" s="2" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="3">
         <v>43405</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D5" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="G5" s="1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="H5" s="1" t="n">
         <v>123124</v>
       </c>
       <c r="I5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" s="1" t="n">
         <v>123123</v>
       </c>
-      <c r="J5" s="1" t="n">
+      <c r="K5" s="1" t="n">
         <v>345</v>
       </c>
-      <c r="K5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="L5" s="2" t="n">
+      <c r="L5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="M5" s="2" t="n">
         <v>143453</v>
       </c>
     </row>
